--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.895758333333333</v>
+        <v>1.178962333333333</v>
       </c>
       <c r="H2">
-        <v>29.687275</v>
+        <v>3.536887</v>
       </c>
       <c r="I2">
-        <v>0.009836335004010318</v>
+        <v>0.001182125215344215</v>
       </c>
       <c r="J2">
-        <v>0.009836335004010316</v>
+        <v>0.001182125215344214</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.764494666666667</v>
+        <v>2.582049666666667</v>
       </c>
       <c r="N2">
-        <v>5.293483999999999</v>
+        <v>7.746149</v>
       </c>
       <c r="O2">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835153</v>
       </c>
       <c r="P2">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835152</v>
       </c>
       <c r="Q2">
-        <v>17.46101280178889</v>
+        <v>3.044139299795889</v>
       </c>
       <c r="R2">
-        <v>157.1491152161</v>
+        <v>27.397253698163</v>
       </c>
       <c r="S2">
-        <v>0.0001500675609398729</v>
+        <v>2.620608003186201E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001500675609398729</v>
+        <v>2.6206080031862E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.895758333333333</v>
+        <v>1.178962333333333</v>
       </c>
       <c r="H3">
-        <v>29.687275</v>
+        <v>3.536887</v>
       </c>
       <c r="I3">
-        <v>0.009836335004010318</v>
+        <v>0.001182125215344215</v>
       </c>
       <c r="J3">
-        <v>0.009836335004010316</v>
+        <v>0.001182125215344214</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>93.97803499999999</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N3">
         <v>281.934105</v>
       </c>
       <c r="O3">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540504</v>
       </c>
       <c r="P3">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540503</v>
       </c>
       <c r="Q3">
-        <v>929.9839230015416</v>
+        <v>110.7965634256817</v>
       </c>
       <c r="R3">
-        <v>8369.855307013875</v>
+        <v>997.1690708311352</v>
       </c>
       <c r="S3">
-        <v>0.00799268751603217</v>
+        <v>0.0009538143042873808</v>
       </c>
       <c r="T3">
-        <v>0.007992687516032168</v>
+        <v>0.0009538143042873802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.895758333333333</v>
+        <v>1.178962333333333</v>
       </c>
       <c r="H4">
-        <v>29.687275</v>
+        <v>3.536887</v>
       </c>
       <c r="I4">
-        <v>0.009836335004010318</v>
+        <v>0.001182125215344215</v>
       </c>
       <c r="J4">
-        <v>0.009836335004010316</v>
+        <v>0.001182125215344214</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>19.913116</v>
       </c>
       <c r="N4">
-        <v>59.73934800000001</v>
+        <v>59.73934799999999</v>
       </c>
       <c r="O4">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="P4">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="Q4">
-        <v>197.0553835996334</v>
+        <v>23.47681370329733</v>
       </c>
       <c r="R4">
-        <v>1773.4984523967</v>
+        <v>211.291323329676</v>
       </c>
       <c r="S4">
-        <v>0.001693579927038276</v>
+        <v>0.000202104831024972</v>
       </c>
       <c r="T4">
-        <v>0.001693579927038275</v>
+        <v>0.0002021048310249719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2851.972901</v>
       </c>
       <c r="I5">
-        <v>0.9449490017724818</v>
+        <v>0.9532080272144655</v>
       </c>
       <c r="J5">
-        <v>0.9449490017724816</v>
+        <v>0.9532080272144653</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.764494666666667</v>
+        <v>2.582049666666667</v>
       </c>
       <c r="N5">
-        <v>5.293483999999999</v>
+        <v>7.746149</v>
       </c>
       <c r="O5">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835153</v>
       </c>
       <c r="P5">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835152</v>
       </c>
       <c r="Q5">
-        <v>1677.430324430787</v>
+        <v>2454.645226123139</v>
       </c>
       <c r="R5">
-        <v>15096.87291987708</v>
+        <v>22091.80703510825</v>
       </c>
       <c r="S5">
-        <v>0.01441656794433587</v>
+        <v>0.02113130277905618</v>
       </c>
       <c r="T5">
-        <v>0.01441656794433587</v>
+        <v>0.02113130277905617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2851.972901</v>
       </c>
       <c r="I6">
-        <v>0.9449490017724818</v>
+        <v>0.9532080272144655</v>
       </c>
       <c r="J6">
-        <v>0.9449490017724816</v>
+        <v>0.9532080272144653</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.97803499999999</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N6">
         <v>281.934105</v>
       </c>
       <c r="O6">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540504</v>
       </c>
       <c r="P6">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540503</v>
       </c>
       <c r="Q6">
-        <v>89340.93636974317</v>
+        <v>89340.9363697432</v>
       </c>
       <c r="R6">
-        <v>804068.4273276886</v>
+        <v>804068.4273276888</v>
       </c>
       <c r="S6">
-        <v>0.767834979865439</v>
+        <v>0.7691092614532999</v>
       </c>
       <c r="T6">
-        <v>0.767834979865439</v>
+        <v>0.7691092614532996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2851.972901</v>
       </c>
       <c r="I7">
-        <v>0.9449490017724818</v>
+        <v>0.9532080272144655</v>
       </c>
       <c r="J7">
-        <v>0.9449490017724816</v>
+        <v>0.9532080272144653</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>19.913116</v>
       </c>
       <c r="N7">
-        <v>59.73934800000001</v>
+        <v>59.73934799999999</v>
       </c>
       <c r="O7">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="P7">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="Q7">
         <v>18930.55573548984</v>
       </c>
       <c r="R7">
-        <v>170375.0016194086</v>
+        <v>170375.0016194085</v>
       </c>
       <c r="S7">
-        <v>0.1626974539627069</v>
+        <v>0.1629674629821094</v>
       </c>
       <c r="T7">
-        <v>0.1626974539627069</v>
+        <v>0.1629674629821094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.48781433333334</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H8">
         <v>136.463443</v>
       </c>
       <c r="I8">
-        <v>0.04521466322350795</v>
+        <v>0.04560984757019037</v>
       </c>
       <c r="J8">
-        <v>0.04521466322350794</v>
+        <v>0.04560984757019036</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.764494666666667</v>
+        <v>2.582049666666667</v>
       </c>
       <c r="N8">
-        <v>5.293483999999999</v>
+        <v>7.746149</v>
       </c>
       <c r="O8">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835153</v>
       </c>
       <c r="P8">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835152</v>
       </c>
       <c r="Q8">
-        <v>80.26300578949022</v>
+        <v>117.4517958367785</v>
       </c>
       <c r="R8">
-        <v>722.367052105412</v>
+        <v>1057.066162531007</v>
       </c>
       <c r="S8">
-        <v>0.0006898152844431623</v>
+        <v>0.001011107199263488</v>
       </c>
       <c r="T8">
-        <v>0.0006898152844431621</v>
+        <v>0.001011107199263487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.48781433333334</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H9">
         <v>136.463443</v>
       </c>
       <c r="I9">
-        <v>0.04521466322350795</v>
+        <v>0.04560984757019037</v>
       </c>
       <c r="J9">
-        <v>0.04521466322350794</v>
+        <v>0.04560984757019036</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,16 +986,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>93.97803499999999</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N9">
         <v>281.934105</v>
       </c>
       <c r="O9">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540504</v>
       </c>
       <c r="P9">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540503</v>
       </c>
       <c r="Q9">
         <v>4274.855407491502</v>
@@ -1004,10 +1004,10 @@
         <v>38473.69866742352</v>
       </c>
       <c r="S9">
-        <v>0.03673997216857619</v>
+        <v>0.03680094499646316</v>
       </c>
       <c r="T9">
-        <v>0.03673997216857619</v>
+        <v>0.03680094499646314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.48781433333334</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H10">
         <v>136.463443</v>
       </c>
       <c r="I10">
-        <v>0.04521466322350795</v>
+        <v>0.04560984757019037</v>
       </c>
       <c r="J10">
-        <v>0.04521466322350794</v>
+        <v>0.04560984757019036</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>19.913116</v>
       </c>
       <c r="N10">
-        <v>59.73934800000001</v>
+        <v>59.73934799999999</v>
       </c>
       <c r="O10">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="P10">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="Q10">
-        <v>905.8041234061295</v>
+        <v>905.8041234061291</v>
       </c>
       <c r="R10">
-        <v>8152.237110655165</v>
+        <v>8152.237110655162</v>
       </c>
       <c r="S10">
-        <v>0.007784875770488598</v>
+        <v>0.007797795374463726</v>
       </c>
       <c r="T10">
-        <v>0.007784875770488597</v>
+        <v>0.007797795374463725</v>
       </c>
     </row>
   </sheetData>
